--- a/data/Simulations/HR1_2/Market Data/HR1_market_data_base.xlsx
+++ b/data/Simulations/HR1_2/Market Data/HR1_market_data_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\Simulations\HR1_2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66425CA3-B9AC-49A4-A880-7B4C6F75374C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0806FC84-8CC0-468C-8952-7CBB5A604DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1003,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1759,7 +1759,7 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F4" sqref="A1:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2264,7 +2264,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Y1"/>
+      <selection activeCell="D5" sqref="A1:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2743,7 +2743,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C2" sqref="A1:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3235,7 +3235,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C5" sqref="A1:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3729,8 +3729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEF7587-AA65-4F33-8FA0-AB47A59BFC1E}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
